--- a/remove_listname_hvn.xlsx
+++ b/remove_listname_hvn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHAMT16\Desktop\StoreMappingApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHAMT16\Desktop\git\StreamlitStoreMappingV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2300766-3E5E-4D56-BBCF-269AA63C7BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F361B0-236C-4FE1-A909-FE5822EAC37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{801627D4-7E78-4CF0-8A58-7FE2C650D3DA}"/>
+    <workbookView xWindow="680" yWindow="0" windowWidth="12520" windowHeight="10200" xr2:uid="{801627D4-7E78-4CF0-8A58-7FE2C650D3DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="175">
   <si>
     <t>Optional</t>
   </si>
@@ -510,6 +510,57 @@
   </si>
   <si>
     <t xml:space="preserve">Quan ăn </t>
+  </si>
+  <si>
+    <t>giặt sấy</t>
+  </si>
+  <si>
+    <t>nhà thuốc</t>
+  </si>
+  <si>
+    <t>nhà thuốc tư nhân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vựa khô đường đậu gia vị </t>
+  </si>
+  <si>
+    <t>tã sữa tổng hợp</t>
+  </si>
+  <si>
+    <t>nhà thuốc tây</t>
+  </si>
+  <si>
+    <t>lan ,mỹ phẩm</t>
+  </si>
+  <si>
+    <t>lan</t>
+  </si>
+  <si>
+    <t>chuyên bán sỉ lẻ nước ngọt</t>
+  </si>
+  <si>
+    <t>cưa hàng gia dụng</t>
+  </si>
+  <si>
+    <t>phụ liệu tóc nail</t>
+  </si>
+  <si>
+    <t>nhận sửa quần áo</t>
+  </si>
+  <si>
+    <t>chuyên cung cấp các loại sữa</t>
+  </si>
+  <si>
+    <t>tạp hoa gia dụng</t>
+  </si>
+  <si>
+    <t>xe gắn máy</t>
+  </si>
+  <si>
+    <t>ehome</t>
+  </si>
+  <si>
+    <t>thanh pho</t>
   </si>
 </sst>
 </file>
@@ -861,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF66CE3B-F583-4DBF-BEE3-00AA8E27DAAF}">
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1666,6 +1717,89 @@
         <v>157</v>
       </c>
     </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>164</v>
+      </c>
+      <c r="B143" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
